--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -48,8 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,25 +130,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C5" headerRowCount="1">
-  <autoFilter ref="A1:C5"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" headerRowCount="1">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
+    <tableColumn id="3" name="Measure Data Type"/>
+    <tableColumn id="4" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D3" headerRowCount="1">
-  <autoFilter ref="A1:D3"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F3" headerRowCount="1">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,96 +462,127 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Measure Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Measure Expression</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Measure Data Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Measure Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>No of Specialization Completed</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>VAR RES = COUNTAX(FILTER('LDP Summary', 'LDP Summary'[First Result]="Completed"), 'LDP Summary'[Employee ID]) RETURN IF(RES = 0, 0, RES)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>This calculation is counting up the number of employee IDs in the data table 'LDP Summary' that have a First Result value of "Completed". If no records have the value of "Completed", then the calculation will return the value 0. Otherwise, the calculation will return the count of Employee IDs that have the</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is checking a table called 'LDP Summary' for any rows where the value in the 'First Result' column is equal to "Completed", and counting the number of 'Employee ID' occurrences in those rows. If there are no rows that satisfy this condition, it would return 0, otherwise</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>RANKX(CROSSJOIN(ALL('LDP Summary'[Employee ID]),ALL('LDP Summary'[Name])),[No of Specialization Completed],,DESC)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>This calculation ranks the employees by their number of specializations completed. It takes into account all the Employee ID and Name values in the 'LDP Summary' table and creates a cross join of these two columns to find all combinations. Then, it ranks them by the 'No of Specialization Completed' column in</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>This calculation will produce a ranking of employees based on the number of specialization courses they have completed. It will first use the Crossjoin function to join all Employee ID's and Names from the 'LDP Summary' table. Then it will use the RANKX function to rank the employees based on the number of</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>CompletedSpecialized</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>CALCULATE(COUNTROWS('LDP Summary'),'LDP Summary'[First Result] = "Completed")</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The CALCULATE function is being used to count the number of rows in the 'LDP Summary' table where the 'First Result' column has the value "Completed". This is useful for calculating the total number of documents which have been completed.</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is counting the total number of rows in a table called 'LDP Summary' where the field called 'First Result' has a value of "Completed".</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Rank of Project Managers</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>RANKX(ALL('LDP Summary'[Project Manager]),[No of Specialization Completed],,DESC,Dense)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>This calculation finds the rank of each Project Manager according to the number of specializations they have completed, in descending order. It takes data from the table "LDP Summary" and uses the "No of Specialization Completed" column. It gives the highest rank to the Project Manager with the greatest number of special</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>This calculation ranks all project managers according to the number of specializations completed in a descending order, with ties being given the same rank.</t>
         </is>
       </c>
     </row>
@@ -563,73 +600,115 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Table Source</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>LDP Summary</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\Pragya_EMPN0366\LDP Summary.xlsx"</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Name", type text}, {"Employee ID", type text}, {"Project Manager", type text}, {"Specialization Name", type text}, {"Completion Or Target Date", Int64.Type}, {"Is LDP Goal", type text}, {"LDP Completion Risk", type any}, {"SpecializationPercentage", type number}, {"First Result", type text}})
+in
+    #"Changed Type"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>LDP Course Details</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Desktop\Pragya_EMPN0366\LDP Course Details.xlsx"</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Employee ID", type text}, {"Name", type text}, {"Specialization Name", type text}, {"Course Name", type text}, {"Result", type text}, {"Sum of Percent", type number}, {"Score", type text}, {"Completion Date", type number}, {"Is LDP Goal", type text}})
+in
+    #"Changed Type"</t>
         </is>
       </c>
     </row>
@@ -654,76 +733,85 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>From Table</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From Column</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>To Table</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To Column</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cardinality</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>LDP Summary</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>LDP Course Details</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Both Directional</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Many to many (*:*)</t>
         </is>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is checking a table called 'LDP Summary' for any rows where the value in the 'First Result' column is equal to "Completed", and counting the number of 'Employee ID' occurrences in those rows. If there are no rows that satisfy this condition, it would return 0, otherwise</t>
+          <t>This calculation is counting the Employee IDs of a data set where the First Result is 'Completed'. If there are no Employee IDs with the First Result of 'Completed', the calculation will return 0. Otherwise, it will return the number of Employee IDs it counted.</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation will produce a ranking of employees based on the number of specialization courses they have completed. It will first use the Crossjoin function to join all Employee ID's and Names from the 'LDP Summary' table. Then it will use the RANKX function to rank the employees based on the number of</t>
+          <t>This calculation ranks each employee by the total number of specialization courses they have completed, in descending order. 'LDP Summary' is the table of data, containing the employee IDs and names, and the number of specialization courses completed by each employee. The CROSSJOIN function is used to create a Cartesian</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the total number of rows in a table called 'LDP Summary' where the field called 'First Result' has a value of "Completed".</t>
+          <t>This calculation counts the number of rows in the 'LDP Summary' table where the value in the 'First Result' column is equal to 'Completed'. This number can be used to help determine the success rate of process completions.</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks all project managers according to the number of specializations completed in a descending order, with ties being given the same rank.</t>
+          <t>This calculation finds the ranking of project managers based on the number of specialization completed. It sorts data in descending order and assigns a rank to each project manager in the list. It ignores blank values, when assigning the ranks.</t>
         </is>
       </c>
     </row>
@@ -674,9 +674,8 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Name", type text}, {"Employee ID", type text}, {"Project Manager", type text}, {"Specialization Name", type text}, {"Completion Or Target Date", Int64.Type}, {"Is LDP Goal", type text}, {"LDP Completion Risk", type any}, {"SpecializationPercentage", type number}, {"First Result", type text}})
-in
-    #"Changed Type"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Name", type text}, {"Employee ID", type text}, {"Project Manager", type text}, {"Specialization Name", type text}, {"Completion Or Target Date", Int64.Type}, {"Is LDP Goal", type text}, {"LDP Completion Risk", type any}, {"SpecializationPercentage", type number}, {"First Result", type text}})
+</t>
         </is>
       </c>
     </row>
@@ -706,9 +705,8 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Employee ID", type text}, {"Name", type text}, {"Specialization Name", type text}, {"Course Name", type text}, {"Result", type text}, {"Sum of Percent", type number}, {"Score", type text}, {"Completion Date", type number}, {"Is LDP Goal", type text}})
-in
-    #"Changed Type"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Employee ID", type text}, {"Name", type text}, {"Specialization Name", type text}, {"Course Name", type text}, {"Result", type text}, {"Sum of Percent", type number}, {"Score", type text}, {"Completion Date", type number}, {"Is LDP Goal", type text}})
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -143,15 +143,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,7 +517,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the Employee IDs of a data set where the First Result is 'Completed'. If there are no Employee IDs with the First Result of 'Completed', the calculation will return 0. Otherwise, it will return the number of Employee IDs it counted.</t>
+          <t>This calculation will count the number of Employee ID values in the LDP Summary table where the First Result equals "Completed". If no Employee IDs have a First Result of "Completed", then the calculation will return 0, otherwise, it will return the count of Employee ID values.</t>
         </is>
       </c>
     </row>
@@ -538,7 +539,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks each employee by the total number of specialization courses they have completed, in descending order. 'LDP Summary' is the table of data, containing the employee IDs and names, and the number of specialization courses completed by each employee. The CROSSJOIN function is used to create a Cartesian</t>
+          <t>This calculation ranks the 'LDP Summary' table by the number of specializations completed, showing the Employee ID and their Name with their corresponding number of specializations completed in descending order. The ALL function is used to ensure that all rows and columns in the 'LDP Summary' table are considered, even if</t>
         </is>
       </c>
     </row>
@@ -560,7 +561,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of rows in the 'LDP Summary' table where the value in the 'First Result' column is equal to 'Completed'. This number can be used to help determine the success rate of process completions.</t>
+          <t>This calculation is used to count the number of rows in the 'LDP Summary' table whose 'First Result' column contains the value "Completed".</t>
         </is>
       </c>
     </row>
@@ -582,7 +583,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation finds the ranking of project managers based on the number of specialization completed. It sorts data in descending order and assigns a rank to each project manager in the list. It ignores blank values, when assigning the ranks.</t>
+          <t>This calculation ranks all project managers from the table named "LDP Summary" in descending order based on the total number of specializations completed by each manager. The ranking is done using a "dense" ranking, meaning there are no gaps in the list of rankings, such as a "3" ranking immediately</t>
         </is>
       </c>
     </row>
@@ -600,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,10 +611,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,10 +641,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -669,10 +676,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Table1_Table</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Name", type text}, {"Employee ID", type text}, {"Project Manager", type text}, {"Specialization Name", type text}, {"Completion Or Target Date", Int64.Type}, {"Is LDP Goal", type text}, {"LDP Completion Risk", type any}, {"SpecializationPercentage", type number}, {"First Result", type text}})
 </t>
@@ -700,10 +712,15 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Table1_Table</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Employee ID", type text}, {"Name", type text}, {"Specialization Name", type text}, {"Course Name", type text}, {"Result", type text}, {"Sum of Percent", type number}, {"Score", type text}, {"Completion Date", type number}, {"Is LDP Goal", type text}})
 </t>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:H3" headerRowCount="1">
+  <autoFilter ref="A1:H3"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -153,6 +153,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation will count the number of Employee ID values in the LDP Summary table where the First Result equals "Completed". If no Employee IDs have a First Result of "Completed", then the calculation will return 0, otherwise, it will return the count of Employee ID values.</t>
+          <t>This calculation is looking at the 'LDP Summary' table and it is counting all employee IDs (RES) from that table whose first result is marked as completed. It then returns the number of employee IDs (RES) if there is greater then 0, otherwise it will return 0.</t>
         </is>
       </c>
     </row>
@@ -539,7 +540,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks the 'LDP Summary' table by the number of specializations completed, showing the Employee ID and their Name with their corresponding number of specializations completed in descending order. The ALL function is used to ensure that all rows and columns in the 'LDP Summary' table are considered, even if</t>
+          <t>This calculation ranks a cross-join of all the unique employee IDs and names found in the 'LDP Summary' table, based on the number of specializations completed. The results are then ordered in descending order, with the highest number of specializations completed at the top.</t>
         </is>
       </c>
     </row>
@@ -561,7 +562,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to count the number of rows in the 'LDP Summary' table whose 'First Result' column contains the value "Completed".</t>
+          <t>This calculation counts the number of rows in the 'LDP Summary' table where the 'First Result' column has the value of "Completed". This calculation can be useful to determine the number of LDPs with a particular result.</t>
         </is>
       </c>
     </row>
@@ -583,7 +584,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks all project managers from the table named "LDP Summary" in descending order based on the total number of specializations completed by each manager. The ranking is done using a "dense" ranking, meaning there are no gaps in the list of rankings, such as a "3" ranking immediately</t>
+          <t>This calculation ranks a list of Project Managers by the number of specializations they have completed in descending order, while ignoring ties and allocating consecutive ranks. An example output of this calculation would look like this: Project Manager A has the highest rank with 4 specializations completed, followed by Project Manager B with</t>
         </is>
       </c>
     </row>
@@ -601,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +617,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,6 +656,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -690,6 +697,11 @@
 </t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>This code is creating a table called Table1_Table and then transforming the columns of the table to different data types using Table.TransformColumnTypes. The data types in the table would be changed to text, Int64, any and number. The columns of the table being changed are Name, Employee ID, Project Manager, Specialization Name, Completion or Target Date, Is LDP Goal, LDP Completion Risk, Specialization Percentage and First Result.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -724,6 +736,11 @@
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Table1_Table,{{"Employee ID", type text}, {"Name", type text}, {"Specialization Name", type text}, {"Course Name", type text}, {"Result", type text}, {"Sum of Percent", type number}, {"Score", type text}, {"Completion Date", type number}, {"Is LDP Goal", type text}})
 </t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>This is a code line written in a programming language to transform the data in a table named "Table1". The code is changing the data types of the columns in the table. It is changing the columns "Employee ID", "Name", "Specialization Name", "Course Name", "Result", "Sum of Percent", "Score", "Completion Date", and "Is LDP Goal" so that they are all different types of data, including text, number, and date.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is looking at the 'LDP Summary' table and it is counting all employee IDs (RES) from that table whose first result is marked as completed. It then returns the number of employee IDs (RES) if there is greater then 0, otherwise it will return 0.</t>
+          <t>This calculation is counting the number of Employee ID values when the First Result is "Completed" in a table called LDP Summary. If the result of the count is 0, then the calculation returns 0, otherwise it returns the count of Employee ID values.</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks a cross-join of all the unique employee IDs and names found in the 'LDP Summary' table, based on the number of specializations completed. The results are then ordered in descending order, with the highest number of specializations completed at the top.</t>
+          <t>This calculation finds the number of 'Specialization Completed' by each employee and ranks them in descending order. It uses a CROSSJOIN of the 'Employee ID' and 'Name' columns from the 'LDP Summary' table to provide a unique number for each employee and their name. Finally,</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of rows in the 'LDP Summary' table where the 'First Result' column has the value of "Completed". This calculation can be useful to determine the number of LDPs with a particular result.</t>
+          <t>This calculation counts the number of rows in the LDP Summary table where the First Result column is equal to Completed. It counts the number of rows where the first result is marked as completed.</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks a list of Project Managers by the number of specializations they have completed in descending order, while ignoring ties and allocating consecutive ranks. An example output of this calculation would look like this: Project Manager A has the highest rank with 4 specializations completed, followed by Project Manager B with</t>
+          <t>This calculation is used to rank the number of specializations completed by project managers within the 'LDP Summary' table in descending order. The ranking is done in a "dense" fashion, meaning that any ties in the number of specializations are given the same rank. The result is the project managers ranked</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is creating a table called Table1_Table and then transforming the columns of the table to different data types using Table.TransformColumnTypes. The data types in the table would be changed to text, Int64, any and number. The columns of the table being changed are Name, Employee ID, Project Manager, Specialization Name, Completion or Target Date, Is LDP Goal, LDP Completion Risk, Specialization Percentage and First Result.</t>
+          <t>This code is transforming the columns of the table named Table1. For each of the nine columns in Table1, the code will change their data types to the specified type. These columns include: Name, Employee ID, Project Manager, Specialization Name, Completion or Target Date, Is LDP Goal, LDP Completion Risk, SpecializationPercentage, and First Result. The data types for each of these columns are set as: text, text, text, text, Int64.Type, text, any, number, and text respectively.</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This is a code line written in a programming language to transform the data in a table named "Table1". The code is changing the data types of the columns in the table. It is changing the columns "Employee ID", "Name", "Specialization Name", "Course Name", "Result", "Sum of Percent", "Score", "Completion Date", and "Is LDP Goal" so that they are all different types of data, including text, number, and date.</t>
+          <t>This code is changing the data types of specific columns that are found in Table1. The columns that are changing types are Employee ID, Name, Specialization Name, Course Name, Result, Sum of Percent, Score, Completion Date, and Is LDP Goal. The new data type for each is either text or number.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of Employee ID values when the First Result is "Completed" in a table called LDP Summary. If the result of the count is 0, then the calculation returns 0, otherwise it returns the count of Employee ID values.</t>
+          <t>This calculation is counting the number of unique employee IDs from a table called 'LDP Summary' with the filter that the "First Result" value is "Completed". After the count is taken, it is returned as 0 if the result is 0, or otherwise the counted number is returned.</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation finds the number of 'Specialization Completed' by each employee and ranks them in descending order. It uses a CROSSJOIN of the 'Employee ID' and 'Name' columns from the 'LDP Summary' table to provide a unique number for each employee and their name. Finally,</t>
+          <t>This calculation ranks the employees by the number of specializations they completed. It looks at all Employee ID's and Names in the LDP Summary table, and then ranks them in descending order based on how many specializations they completed.</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of rows in the LDP Summary table where the First Result column is equal to Completed. It counts the number of rows where the first result is marked as completed.</t>
+          <t>This calculation is counting the number of rows in the 'LDP Summary' table that have a 'First Result' value of "Completed". It can be used to answer questions like how many LDPs have been completed out of the total.</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to rank the number of specializations completed by project managers within the 'LDP Summary' table in descending order. The ranking is done in a "dense" fashion, meaning that any ties in the number of specializations are given the same rank. The result is the project managers ranked</t>
+          <t>This calculation is used to rank each project manager based on the number of specializations they have completed. It orders the project managers from highest to lowest number of specializations completed, thus indicating the project managers with the most specializations first. The ranking is done in descending order, with a Dense ranking applied so</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is transforming the columns of the table named Table1. For each of the nine columns in Table1, the code will change their data types to the specified type. These columns include: Name, Employee ID, Project Manager, Specialization Name, Completion or Target Date, Is LDP Goal, LDP Completion Risk, SpecializationPercentage, and First Result. The data types for each of these columns are set as: text, text, text, text, Int64.Type, text, any, number, and text respectively.</t>
+          <t>This code is transforming the data type for columns in a table called "Table1". For example, the column called "Name" will be changed from its current data type to "type text". Other columns such as "Employee ID", "Project Manager", and "Specialization Name" will be changed from their current data types to "type text". Moreover, the column called "Completion Or Target Date" will be changed from its current data type to "Int64.Type", and "Is LDP Goal" and "First Result" will be changed to "type text". Lastly, the column called "LDP Completion Risk" and "Specialization Percentage" will be changed to"type any" and "type number" respectively.</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This code is changing the data types of specific columns that are found in Table1. The columns that are changing types are Employee ID, Name, Specialization Name, Course Name, Result, Sum of Percent, Score, Completion Date, and Is LDP Goal. The new data type for each is either text or number.</t>
+          <t>This code is changing the data types of certain columns in a table called “Table1”. The data types of the columns “Employee ID”, “Name”, “Specialization Name”, “Course Name”, “Result”, “Sum of Percent”, “Score”, “Completion Date” and “Is LDP Goal” will be changed to text, text, text, text, text, number, text, number and text types respectively.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Manual_assessment_Pragya.xlsx
+++ b/EXCEL Output/Manual_assessment_Pragya.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of unique employee IDs from a table called 'LDP Summary' with the filter that the "First Result" value is "Completed". After the count is taken, it is returned as 0 if the result is 0, or otherwise the counted number is returned.</t>
+          <t>This calculation counts how many 'Completed' first results are on the LDP Summary table. It will return those counted results. If the number of completed first results is 0, then it will return 0.</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation ranks the employees by the number of specializations they completed. It looks at all Employee ID's and Names in the LDP Summary table, and then ranks them in descending order based on how many specializations they completed.</t>
+          <t>This calculation is used to rank each employee's number of specializations completed. It starts by creating a unique combination of each employee ID and name in the table 'LDP Summary', and then ranks the entries in descending order according to the number of specializations completed by each employee.</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of rows in the 'LDP Summary' table that have a 'First Result' value of "Completed". It can be used to answer questions like how many LDPs have been completed out of the total.</t>
+          <t>This calculation is counting the number of rows in the 'LDP Summary' table that have a value of 'Completed' in the 'First Result' column. This can be useful in understanding the percentage of jobs in the table that have a status of 'Completed'.</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to rank each project manager based on the number of specializations they have completed. It orders the project managers from highest to lowest number of specializations completed, thus indicating the project managers with the most specializations first. The ranking is done in descending order, with a Dense ranking applied so</t>
+          <t>This calculation will rank all Project Managers in the 'LDP Summary' table based on the number of specialization completed from highest to lowest, with ties being broken by assigning consecutive numbers. The goal is to identify the Project Managers with the highest number of specialization completed.</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -699,7 +699,8 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is transforming the data type for columns in a table called "Table1". For example, the column called "Name" will be changed from its current data type to "type text". Other columns such as "Employee ID", "Project Manager", and "Specialization Name" will be changed from their current data types to "type text". Moreover, the column called "Completion Or Target Date" will be changed from its current data type to "Int64.Type", and "Is LDP Goal" and "First Result" will be changed to "type text". Lastly, the column called "LDP Completion Risk" and "Specialization Percentage" will be changed to"type any" and "type number" respectively.</t>
+          <t xml:space="preserve">1. This sentence is changing the data types of various columns in Table1_Table to text, Int64, number, or any.
+</t>
         </is>
       </c>
     </row>
@@ -740,7 +741,8 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This code is changing the data types of certain columns in a table called “Table1”. The data types of the columns “Employee ID”, “Name”, “Specialization Name”, “Course Name”, “Result”, “Sum of Percent”, “Score”, “Completion Date” and “Is LDP Goal” will be changed to text, text, text, text, text, number, text, number and text types respectively.</t>
+          <t xml:space="preserve">1. This statement changes the data types for multiple columns in a table called Table1_Table to either text or number.
+</t>
         </is>
       </c>
     </row>
